--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3257.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3257.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.603201338309437</v>
+        <v>2.554428100585938</v>
       </c>
       <c r="B1">
-        <v>1.80739129723561</v>
+        <v>2.831684589385986</v>
       </c>
       <c r="C1">
-        <v>2.217484259872597</v>
+        <v>2.110269546508789</v>
       </c>
       <c r="D1">
-        <v>4.24172343673932</v>
+        <v>1.888778686523438</v>
       </c>
       <c r="E1">
-        <v>2.278976064099449</v>
+        <v>1.661590337753296</v>
       </c>
     </row>
   </sheetData>
